--- a/Nelson_Siegel_Model_in_practice.xlsx
+++ b/Nelson_Siegel_Model_in_practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\GitHub\Nelson Siegel Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\GitHub\Modeling-Yield-Curve\Nelson Siegel Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{397633CB-D1D7-4D33-A867-4C48EED46D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0390B10-55FB-4F2E-8F7C-52563FA2521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58909078-92B9-484E-B954-2D4D9DAB8EA9}"/>
   </bookViews>
@@ -48,7 +48,6 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1903,7 +1902,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,7 +1911,7 @@
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" customWidth="1"/>
@@ -2496,20 +2495,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2526,8 +2525,8 @@
         <v>0.61973543248018936</v>
       </c>
       <c r="E18" s="26">
-        <f>(1-EXP(-C18*$P$5))/(C18*$P$5)</f>
-        <v>0.61973543248018936</v>
+        <f>((1-EXP(-C18*$P$5))/(C18*$P$5)-EXP(-C18*$P$5))</f>
+        <v>0.26893928477481183</v>
       </c>
       <c r="F18" s="5">
         <f>$P$2+$P$3*D18+$P$4*E18</f>
@@ -2547,8 +2546,8 @@
         <v>0.47282613464961409</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" ref="E19:E22" si="5">(1-EXP(-C19*$P$5))/(C19*$P$5)</f>
-        <v>0.47282613464961409</v>
+        <f t="shared" ref="E19:E22" si="5">((1-EXP(-C19*$P$5))/(C19*$P$5)-EXP(-C19*$P$5))</f>
+        <v>0.29834116356995294</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ref="F19:F22" si="6">$P$2+$P$3*D19+$P$4*E19</f>
